--- a/HT-2/Club-BAC-14-Lenguaje en formatos.xlsx
+++ b/HT-2/Club-BAC-14-Lenguaje en formatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD5D26-DB1A-5D40-888E-9D75BBA25124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474AC203-4AA7-084D-9246-D06382DA328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6300" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-10" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>A Playbook for Business Architecture Construction</t>
   </si>
@@ -43,13 +43,259 @@
   </si>
   <si>
     <t>BAC-14 Lenguaje en formatos</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Afiliado</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Membresía</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Periodicidad</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Instalación</t>
+  </si>
+  <si>
+    <t>Invitado</t>
+  </si>
+  <si>
+    <t>El Nogal</t>
+  </si>
+  <si>
+    <t>Metropolitan</t>
+  </si>
+  <si>
+    <t>Martín Benavidez</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Muñoz</t>
+  </si>
+  <si>
+    <t>Camila Restrepo</t>
+  </si>
+  <si>
+    <t>Carolina Duque</t>
+  </si>
+  <si>
+    <t>Nicolás Sánchez</t>
+  </si>
+  <si>
+    <t>Manuel González</t>
+  </si>
+  <si>
+    <t>Maria Paula Hernández</t>
+  </si>
+  <si>
+    <t>Mariana Zuluaga</t>
+  </si>
+  <si>
+    <t>Alejandro Puentes</t>
+  </si>
+  <si>
+    <t>Sofía Castellanos</t>
+  </si>
+  <si>
+    <t>Sergio Cifuentes</t>
+  </si>
+  <si>
+    <t>Laura Restrepo</t>
+  </si>
+  <si>
+    <t>Juan David Gómez</t>
+  </si>
+  <si>
+    <t>Marta Lucía Cabal</t>
+  </si>
+  <si>
+    <t>Gustavo Uribe</t>
+  </si>
+  <si>
+    <t>Federico Hernández</t>
+  </si>
+  <si>
+    <t>Gabriela Paris</t>
+  </si>
+  <si>
+    <t>Esteban Ramírez</t>
+  </si>
+  <si>
+    <t>Blanca Calderón</t>
+  </si>
+  <si>
+    <t>Martín Jaramillo</t>
+  </si>
+  <si>
+    <t>SURA</t>
+  </si>
+  <si>
+    <t>Bancolombia</t>
+  </si>
+  <si>
+    <t>Julio Mario Martínez</t>
+  </si>
+  <si>
+    <t>Ramo</t>
+  </si>
+  <si>
+    <t>Catalina Andrea Jiménez</t>
+  </si>
+  <si>
+    <t>Gonzalo Florez</t>
+  </si>
+  <si>
+    <t>Tostao</t>
+  </si>
+  <si>
+    <t>Avianca</t>
+  </si>
+  <si>
+    <t>SalonDeEventos</t>
+  </si>
+  <si>
+    <t>Piscina</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Gimnasio</t>
+  </si>
+  <si>
+    <t>Cancha</t>
+  </si>
+  <si>
+    <t>890903407-9</t>
+  </si>
+  <si>
+    <t>Identificación</t>
+  </si>
+  <si>
+    <t>860003831-8</t>
+  </si>
+  <si>
+    <t>890903938-8</t>
+  </si>
+  <si>
+    <t>900914403-2</t>
+  </si>
+  <si>
+    <t>890100577-6</t>
+  </si>
+  <si>
+    <t>Club de Suboficiales</t>
+  </si>
+  <si>
+    <t>Los Arrayanes</t>
+  </si>
+  <si>
+    <t>Los Lagartos</t>
+  </si>
+  <si>
+    <t>Carmel Club</t>
+  </si>
+  <si>
+    <t>Country Club</t>
+  </si>
+  <si>
+    <t>Club La Colina</t>
+  </si>
+  <si>
+    <t>Hatogrande Club</t>
+  </si>
+  <si>
+    <t>Club Oro</t>
+  </si>
+  <si>
+    <t>Club del Comercio</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Campestre</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Deportiva</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Kr 16a #32-27</t>
+  </si>
+  <si>
+    <t>Dg 5 #3-12</t>
+  </si>
+  <si>
+    <t>Kr 7 #90-35</t>
+  </si>
+  <si>
+    <t>Calle 108#90a bis-16</t>
+  </si>
+  <si>
+    <t>Kr 50 # 10</t>
+  </si>
+  <si>
+    <t>Calle 122 #45-25</t>
+  </si>
+  <si>
+    <t>Av. Kr 13 #9-50</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +315,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -86,11 +351,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -99,6 +442,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,60 +805,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>300000</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1000381618</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1000381816</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="15"/>
+      <c r="C9" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7">
+        <v>51831640</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7">
+        <v>95174192</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7">
+        <v>91836194</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7">
+        <v>281471623</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7">
+        <v>450000</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1000283928</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7">
+        <v>600000</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1001472642</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1038192321</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>93173162</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="16"/>
+      <c r="C15" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7">
+        <v>72301931</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7">
+        <v>51921631</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1000271382</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7">
+        <v>931021732</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="20">
+        <v>93917528</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1000825391</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="7">
+        <v>93165297</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="20">
+        <v>50152833</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="7">
+        <v>51823455</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="20">
+        <v>91031624</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1056789231</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1000189456</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="7">
+        <v>51544704</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+  <mergeCells count="20">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
